--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1286.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1286.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8268135902693338</v>
+        <v>1.136152267456055</v>
       </c>
       <c r="B1">
-        <v>1.508309661298246</v>
+        <v>2.282155990600586</v>
       </c>
       <c r="C1">
-        <v>5.175712648631174</v>
+        <v>10.34047031402588</v>
       </c>
       <c r="D1">
-        <v>3.755779842201938</v>
+        <v>2.169620990753174</v>
       </c>
       <c r="E1">
-        <v>1.518750418375946</v>
+        <v>1.275270104408264</v>
       </c>
     </row>
   </sheetData>
